--- a/Paper/ParamValues.xlsx
+++ b/Paper/ParamValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiahorigan/Documents/GitHub/Bat-disease-metapop/bat-disease-metapop/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D4322-3BD5-1941-8070-61093800CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C77A6-8BC2-3444-AC95-F40D93DF6EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="500" windowWidth="22100" windowHeight="17500" xr2:uid="{9AE1BB73-6C85-404B-86D9-00D32EC168DF}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="23280" windowHeight="17500" xr2:uid="{9AE1BB73-6C85-404B-86D9-00D32EC168DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>Parameter Category</t>
   </si>
@@ -80,9 +80,6 @@
     <t>rate of waning maternal immunity</t>
   </si>
   <si>
-    <t>rate of waning humoral immunity</t>
-  </si>
-  <si>
     <t>transmission coefficient</t>
   </si>
   <si>
@@ -95,27 +92,6 @@
     <t>MSIRNI</t>
   </si>
   <si>
-    <t>1.4 - 1.76</t>
-  </si>
-  <si>
-    <t>0 - 2.3</t>
-  </si>
-  <si>
-    <t>0.53 - 1.65</t>
-  </si>
-  <si>
-    <t>0 - 0</t>
-  </si>
-  <si>
-    <t>1.67 - 2.24</t>
-  </si>
-  <si>
-    <t>0 - 1.02</t>
-  </si>
-  <si>
-    <t>0 - 1.71</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -236,15 +212,6 @@
     <t>include in publication</t>
   </si>
   <si>
-    <t>0.69 - 0.73</t>
-  </si>
-  <si>
-    <t>0.24 - 0.27</t>
-  </si>
-  <si>
-    <t>1.36 - 1.40</t>
-  </si>
-  <si>
     <t>mort_juv</t>
   </si>
   <si>
@@ -254,9 +221,6 @@
     <t>CHECK THIS!!</t>
   </si>
   <si>
-    <t>LCI - UCI</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -264,6 +228,42 @@
   </si>
   <si>
     <t>Patch size</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>lognormal</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>logmean</t>
+  </si>
+  <si>
+    <t>logvar</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>lci</t>
+  </si>
+  <si>
+    <t>uci</t>
+  </si>
+  <si>
+    <t>rate of waning antibodies R - S</t>
+  </si>
+  <si>
+    <t>recrudensence N - I</t>
+  </si>
+  <si>
+    <t>rate of waning antibodies R - N</t>
+  </si>
+  <si>
+    <t>psi</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +286,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,9 +461,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA6452-A0CF-AA4D-8513-559B0671CC99}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,13 +818,13 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="17"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
-    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="17"/>
+    <col min="12" max="12" width="10.83203125" style="10"/>
+    <col min="13" max="13" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="118.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,22 +841,34 @@
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -847,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -856,640 +885,910 @@
         <v>1.58</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.218</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3">
+        <v>109</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="C3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="20">
         <v>0.02</v>
       </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21">
+        <v>-9.4290000000000003</v>
+      </c>
+      <c r="H3" s="21">
+        <v>11.034000000000001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="22">
+        <v>109</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21">
+        <v>-0.80500000000000005</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1.782</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="22">
+        <v>109</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1.53</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1.96</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="3">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3">
+        <v>109</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>-10.002000000000001</v>
+      </c>
+      <c r="H9" s="21">
+        <v>10.794</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="22">
+        <v>109</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
+        <v>-5.55</v>
+      </c>
+      <c r="H10" s="21">
+        <v>6.859</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="31">
+        <v>109</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.71</v>
+      </c>
+      <c r="M10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.71131077381108498</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2.2273536357539699E-2</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1.3834432025155601</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.71131077381108498</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="H12">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="22">
+        <v>72</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.25567219677661901</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2.2273536357539699E-2</v>
+      </c>
+      <c r="G14">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="H14">
+        <v>11.318</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="22">
+        <v>72</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.3834432025155601</v>
+      </c>
+      <c r="G15">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="22">
+        <v>72</v>
+      </c>
+      <c r="K15" s="22">
+        <v>1.36</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.25567219677661901</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16">
+        <v>-1.41</v>
+      </c>
+      <c r="H16">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="22">
+        <v>72</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="11"/>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E21" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="I21" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="18">
+        <v>200</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="11"/>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="13"/>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="17">
-        <v>20</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.48</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="18">
-        <v>200</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="13"/>
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E30" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
         <v>51</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
